--- a/mp-starter/src/main/resources/excels/meteorological.xlsx
+++ b/mp-starter/src/main/resources/excels/meteorological.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Project/IdeaProjects/CMS/mp-starter/src/main/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="7820" windowWidth="24960" windowHeight="13900" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="800" windowWidth="24960" windowHeight="13900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>windspeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +57,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -100,7 +99,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -378,18 +377,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,19 +404,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -426,12 +422,9 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
         <v>43780</v>
       </c>
     </row>
